--- a/Daily/01. elspot-volumes_2013_daily.xlsx
+++ b/Daily/01. elspot-volumes_2013_daily.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1416" yWindow="0" windowWidth="18000" windowHeight="25032"/>
+    <workbookView minimized="1" xWindow="2832" yWindow="0" windowWidth="18000" windowHeight="25032"/>
   </bookViews>
   <sheets>
     <sheet name="elspot-volumes_2013_daily" sheetId="1" r:id="rId1"/>
@@ -34775,33 +34775,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AH366"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A40" sqref="A40"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="6" width="8.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.88671875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.88671875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="8.44140625" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="8.109375" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="7.88671875" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="8.109375" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="7.88671875" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="8.109375" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="8.44140625" hidden="1" customWidth="1"/>
     <col min="13" max="15" width="7.44140625" bestFit="1" customWidth="1"/>
     <col min="16" max="19" width="8.44140625" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="8.44140625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="26" max="29" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="7.109375" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="6.44140625" bestFit="1" customWidth="1"/>
-    <col min="33" max="34" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="8.44140625" hidden="1" customWidth="1"/>
+    <col min="23" max="23" width="7.6640625" hidden="1" customWidth="1"/>
+    <col min="24" max="24" width="7.44140625" hidden="1" customWidth="1"/>
+    <col min="25" max="25" width="7.6640625" hidden="1" customWidth="1"/>
+    <col min="26" max="29" width="7.44140625" hidden="1" customWidth="1"/>
+    <col min="30" max="30" width="7.109375" hidden="1" customWidth="1"/>
+    <col min="31" max="31" width="7.44140625" hidden="1" customWidth="1"/>
+    <col min="32" max="32" width="6.44140625" hidden="1" customWidth="1"/>
+    <col min="33" max="34" width="7.44140625" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:34" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
